--- a/CITracker/wwwroot/templates/users.xlsx
+++ b/CITracker/wwwroot/templates/users.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\eruog\OneDrive\Documents\Project Files\CITracker\App\CITracker\CITracker\wwwroot\templates\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6DCCBB8-5015-464C-B36C-028E62D3C80A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C8AC4F8-CC78-4229-86E2-C9FB59B35C90}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
+    <workbookView xWindow="645" yWindow="2265" windowWidth="22950" windowHeight="11295" xr2:uid="{9F7EF888-3D47-4E63-80A9-8FC1120973C5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>Name</t>
   </si>
@@ -44,16 +44,10 @@
     <t>EmailAddress</t>
   </si>
   <si>
-    <t>John Laye</t>
+    <t>User's Name (First and Last)</t>
   </si>
   <si>
-    <t>j.laye@opsfocus.com</t>
-  </si>
-  <si>
-    <t>Somto Jay</t>
-  </si>
-  <si>
-    <t>s.jay@opsfocus.com</t>
+    <t>User's Official Email address</t>
   </si>
 </sst>
 </file>
@@ -416,14 +410,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{53454CCB-0013-435F-9B79-AC4C0E7C1FC6}">
-  <dimension ref="A1:B3"/>
+  <dimension ref="A1:B2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.85546875" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="20.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -443,20 +438,11 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>5</v>
-      </c>
-    </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="B2" r:id="rId1" xr:uid="{263C1C8B-342A-41E4-BEAA-969270500366}"/>
-    <hyperlink ref="B3" r:id="rId2" xr:uid="{EE483F19-B35E-4B13-8A54-817855EB42E3}"/>
+    <hyperlink ref="B2" r:id="rId1" display="j.laye@opsfocus.com" xr:uid="{263C1C8B-342A-41E4-BEAA-969270500366}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" r:id="rId3"/>
+  <pageSetup orientation="portrait" r:id="rId2"/>
 </worksheet>
 </file>